--- a/level-2/hackerrank-phase-2-algorithms-basics/hackerrank-phase-2-algorithms-basics.xlsx
+++ b/level-2/hackerrank-phase-2-algorithms-basics/hackerrank-phase-2-algorithms-basics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5543BB97-7F0F-472A-85A6-77C4D25D54B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76497B82-EB20-4CFE-827C-10553912670D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="108">
   <si>
     <t>Problem Link</t>
   </si>
@@ -84,102 +84,6 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/time-conversion/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/grading/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/kangaroo/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/between-two-sets/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/the-birthday-bar/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/divisible-sum-pairs/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/migratory-birds/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/day-of-the-programmer/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/bon-appetit/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/sock-merchant/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/drawing-book/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/counting-valleys/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/electronics-shop/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/cats-and-a-mouse/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/the-hurdle-race/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/designer-pdf-viewer/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/utopian-tree/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/angry-professor/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/beautiful-days-at-the-movies/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/strange-advertising/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/save-the-prisoner/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/circular-array-rotation/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/permutation-equation/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds-revisited/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/find-digits/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/append-and-delete/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/sherlock-and-squares/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/library-fine/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/cut-the-sticks/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/repeated-string/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds/problem</t>
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/equality-in-a-array/problem</t>
@@ -630,6 +534,15 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,15 +569,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1057,87 +961,87 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H143)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>COUNTA(I4:I852)</f>
+        <f>COUNTA(I4:I819)</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J852)</f>
-        <v>126</v>
+        <f>COUNTA(J4:J819)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1178,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1199,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1220,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1237,11 +1141,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1258,11 +1162,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1279,11 +1183,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1300,11 +1204,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1321,11 +1225,11 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1334,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1342,11 +1246,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>127</v>
+        <f>SUM(C13:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1362,11 +1266,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>128</v>
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1382,11 +1286,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>129</v>
+        <f>SUM(C15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1402,11 +1306,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>130</v>
+        <f>SUM(C16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1422,11 +1326,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>131</v>
+        <f>SUM(C17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1442,11 +1346,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>132</v>
+        <f>SUM(C18:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,7 +1358,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1462,11 +1366,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>133</v>
+        <f>SUM(C19:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1482,11 +1386,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>134</v>
+        <f>SUM(C20:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1502,11 +1406,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>135</v>
+        <f>SUM(C21:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1522,11 +1426,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>136</v>
+        <f>SUM(C22:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1534,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1542,11 +1446,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>137</v>
+        <f>SUM(C23:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,11 +1466,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>85</v>
+        <f>SUM(C24:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1582,11 +1486,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>86</v>
+        <f>SUM(C25:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1602,11 +1506,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>87</v>
+        <f>SUM(C26:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1622,11 +1526,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>88</v>
+        <f>SUM(C27:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1642,11 +1546,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>89</v>
+        <f>SUM(C28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,11 +1566,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>90</v>
+        <f>SUM(C29:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,11 +1586,11 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>91</v>
+        <f>SUM(C30:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1702,11 +1606,11 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>92</v>
+        <f>SUM(C31:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,11 +1626,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>93</v>
+        <f>SUM(C32:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1742,11 +1646,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>94</v>
+        <f>SUM(C33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,11 +1666,11 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>95</v>
+        <f>SUM(C34:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1782,11 +1686,11 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>96</v>
+        <f>SUM(C35:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1802,11 +1706,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>97</v>
+        <f>SUM(C36:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1814,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1822,11 +1726,11 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>98</v>
+        <f>SUM(C37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1842,11 +1746,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>99</v>
+        <f>SUM(C38:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,11 +1766,11 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>101</v>
+        <f>SUM(C39:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1882,11 +1786,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>102</v>
+        <f>SUM(C40:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,11 +1806,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>103</v>
+        <f>SUM(C41:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1922,11 +1826,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>104</v>
+        <f>SUM(C42:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1934,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1942,11 +1846,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>105</v>
+        <f>SUM(C43:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1962,11 +1866,11 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>106</v>
+        <f>SUM(C44:G44)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1974,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1982,11 +1886,11 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>107</v>
+        <f>SUM(C45:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -2002,11 +1906,11 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>108</v>
+        <f>SUM(C46:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2022,11 +1926,11 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>109</v>
+        <f>SUM(C47:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2042,11 +1946,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>110</v>
+        <f>SUM(C48:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2062,11 +1966,11 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>111</v>
+        <f>SUM(C49:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2074,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2082,11 +1986,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>112</v>
+        <f>SUM(C50:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2102,11 +2006,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>113</v>
+        <f>SUM(C51:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2122,11 +2026,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>114</v>
+        <f>SUM(C52:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2142,11 +2046,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>115</v>
+        <f>SUM(C53:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2154,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2162,11 +2066,11 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>116</v>
+        <f>SUM(C54:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2182,11 +2086,11 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>117</v>
+        <f>SUM(C55:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2194,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2202,11 +2106,11 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>118</v>
+        <f>SUM(C56:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2214,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2222,11 +2126,11 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>119</v>
+        <f>SUM(C57:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2234,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2242,11 +2146,11 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>120</v>
+        <f>SUM(C58:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2254,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2262,11 +2166,11 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>121</v>
+        <f>SUM(C59:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2282,11 +2186,11 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>122</v>
+        <f>SUM(C60:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2302,11 +2206,11 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>123</v>
+        <f>SUM(C61:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2314,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2322,11 +2226,11 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>124</v>
+        <f>SUM(C62:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2342,11 +2246,11 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>125</v>
+        <f>SUM(C63:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2354,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2362,11 +2266,11 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="21" t="s">
-        <v>126</v>
+        <f>SUM(C64:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,11 +2286,10 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="20" t="s">
+        <f>SUM(C65:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2403,11 +2306,10 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="20" t="s">
+        <f>SUM(C66:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2418,17 +2320,16 @@
       <c r="B67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="20" t="s">
+        <f>SUM(C67:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2439,17 +2340,16 @@
       <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="20" t="s">
+        <f>SUM(C68:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2460,17 +2360,16 @@
       <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="20" t="s">
+        <f>SUM(C69:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2481,17 +2380,16 @@
       <c r="B70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="20" t="s">
+        <f>SUM(C70:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2508,12 +2406,11 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="20" t="s">
-        <v>29</v>
+        <f>SUM(C71:G71)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2529,12 +2426,11 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H129" si="2">SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="20" t="s">
-        <v>30</v>
+        <f>SUM(C72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2550,12 +2446,11 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="20" t="s">
-        <v>31</v>
+        <f>SUM(C73:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,18 +2460,17 @@
       <c r="B74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="20" t="s">
-        <v>32</v>
+        <f>SUM(C74:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2592,12 +2486,11 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="20" t="s">
-        <v>33</v>
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2607,18 +2500,17 @@
       <c r="B76" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="20" t="s">
-        <v>34</v>
+        <f>SUM(C76:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,18 +2520,17 @@
       <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="20" t="s">
-        <v>35</v>
+        <f>SUM(C77:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2649,18 +2540,17 @@
       <c r="B78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="20" t="s">
-        <v>36</v>
+        <f>SUM(C78:G78)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2670,18 +2560,17 @@
       <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="20" t="s">
-        <v>37</v>
+        <f>SUM(C79:G79)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2697,12 +2586,11 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="20" t="s">
-        <v>35</v>
+        <f>SUM(C80:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2718,11 +2606,10 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="20" t="s">
+        <f>SUM(C81:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2731,19 +2618,18 @@
         <v>9</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="20" t="s">
+        <f>SUM(C82:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2752,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2760,11 +2646,10 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="20" t="s">
+        <f>SUM(C83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2773,19 +2658,18 @@
         <v>9</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="20" t="s">
+        <f>SUM(C84:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2794,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2802,11 +2686,10 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="20" t="s">
+        <f>SUM(C85:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2815,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2823,11 +2706,10 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="20" t="s">
+        <f>SUM(C86:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2836,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2844,12 +2726,11 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="20" t="s">
-        <v>44</v>
+        <f>SUM(C87:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2857,7 +2738,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2865,12 +2746,11 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="20" t="s">
-        <v>45</v>
+        <f>SUM(C88:G88)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2878,7 +2758,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2886,12 +2766,11 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="20" t="s">
-        <v>46</v>
+        <f>SUM(C89:G89)</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2899,7 +2778,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2907,12 +2786,11 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="2"/>
-      <c r="J90" s="20" t="s">
-        <v>47</v>
+        <f>SUM(C90:G90)</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2920,7 +2798,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2928,12 +2806,11 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="20" t="s">
-        <v>48</v>
+        <f>SUM(C91:G91)</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2941,7 +2818,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2949,11 +2826,11 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="21" t="s">
-        <v>49</v>
+        <f>SUM(C92:G92)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2961,19 +2838,19 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="21" t="s">
-        <v>50</v>
+        <f>SUM(C93:G93)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2981,19 +2858,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="21" t="s">
-        <v>51</v>
+        <f>SUM(C94:G94)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3001,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -3009,11 +2886,11 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="21" t="s">
-        <v>52</v>
+        <f>SUM(C95:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3021,683 +2898,296 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>13</v>
-      </c>
+        <f>SUM(C96:G96)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -3705,17 +3195,15 @@
       <c r="G130" s="9"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+    <row r="131" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
+    <row r="132" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -3723,8 +3211,7 @@
       <c r="G132" s="9"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+    <row r="133" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3732,8 +3219,7 @@
       <c r="G133" s="9"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
+    <row r="134" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -3741,8 +3227,7 @@
       <c r="G134" s="9"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
+    <row r="135" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3750,8 +3235,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
+    <row r="136" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3759,17 +3243,15 @@
       <c r="G136" s="9"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+    <row r="137" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
+    <row r="138" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -3777,8 +3259,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
+    <row r="139" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3786,15 +3267,15 @@
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+    <row r="140" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -3802,7 +3283,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -3810,277 +3291,13 @@
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="7"/>
-    </row>
-    <row r="155" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="7"/>
-    </row>
-    <row r="157" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="7"/>
-    </row>
-    <row r="159" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="7"/>
-    </row>
-    <row r="169" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="7"/>
-    </row>
-    <row r="173" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="7"/>
-    </row>
-    <row r="175" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4130,125 +3347,92 @@
     <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J65" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J66" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J67" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J71" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J72" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J74" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J75" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J77" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J78" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J80" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J81" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J82" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J84" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J85" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J87" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J88" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J89" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J91" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J92" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J94" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J95" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J96" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J97" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J98" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J99" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J100" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J101" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J102" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J103" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J104" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J105" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J106" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J107" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J108" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J109" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J110" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J111" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J112" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J113" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J114" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J115" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J116" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J117" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J118" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J119" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J120" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J121" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J122" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J123" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J124" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J125" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J126" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J127" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J128" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J129" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J24" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="J25" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J26" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="J27" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J28" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="J29" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J30" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J31" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J32" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="J33" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J34" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J35" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J36" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="J37" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="J38" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="J40" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="J41" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J42" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J43" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="J44" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J45" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="J46" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="J47" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J48" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="J49" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="J50" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J51" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="J52" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="J55" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="J56" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J57" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J58" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="J59" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J60" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="J61" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="J62" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J63" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="J64" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="J13" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J14" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="J15" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="J16" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J17" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="J18" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J19" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J20" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="J21" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="J22" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J23" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J65" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J66" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J67" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J71" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J72" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J74" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J75" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J77" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J78" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J80" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J81" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J82" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J84" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J85" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J87" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J88" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J89" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J91" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J92" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J94" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J95" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J96" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J31" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J33" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J34" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J35" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J36" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J41" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J42" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J43" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J44" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J45" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J46" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J47" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J48" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J49" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J50" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J51" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J52" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J53" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J54" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J55" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J56" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J57" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J58" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J59" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J60" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J61" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J62" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J63" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J64" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J13" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J14" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J15" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J16" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J17" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J18" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J19" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J20" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J21" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J22" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J23" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId127"/>
+  <pageSetup orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
--- a/level-2/hackerrank-phase-2-algorithms-basics/hackerrank-phase-2-algorithms-basics.xlsx
+++ b/level-2/hackerrank-phase-2-algorithms-basics/hackerrank-phase-2-algorithms-basics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76497B82-EB20-4CFE-827C-10553912670D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63643110-1F19-480C-86A0-EB777D2F39FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="140">
   <si>
     <t>Problem Link</t>
   </si>
@@ -339,6 +339,102 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/repeated-string/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cut-the-sticks/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/library-fine/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-squares/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/append-and-delete/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-digits/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds-revisited/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/permutation-equation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/circular-array-rotation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/save-the-prisoner/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/strange-advertising/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-days-at-the-movies/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/angry-professor/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/utopian-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/designer-pdf-viewer/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-hurdle-race/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/counting-valleys/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cats-and-a-mouse/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/electronics-shop/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/drawing-book/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sock-merchant/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/bon-appetit/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/day-of-the-programmer/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/migratory-birds/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/divisible-sum-pairs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-birthday-bar/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/between-two-sets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kangaroo/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/grading/problem</t>
   </si>
 </sst>
 </file>
@@ -504,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,6 +665,12 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1012,36 +1114,36 @@
       <c r="A3" s="19"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C143)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D143)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E143)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F143)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G143)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H143)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>COUNTA(I4:I819)</f>
+        <f>COUNTA(I4:I852)</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J819)</f>
-        <v>93</v>
+        <f>COUNTA(J4:J852)</f>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1159,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="7">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1078,7 +1180,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="7">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
@@ -1099,7 +1201,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1120,7 +1222,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1141,7 +1243,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1162,7 +1264,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1183,7 +1285,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1204,7 +1306,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1225,7 +1327,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1246,7 +1348,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="12" t="s">
@@ -1266,7 +1368,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -1286,7 +1388,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -1306,7 +1408,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -1326,7 +1428,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="12" t="s">
@@ -1346,7 +1448,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="12" t="s">
@@ -1366,7 +1468,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="12" t="s">
@@ -1386,7 +1488,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="12" t="s">
@@ -1406,7 +1508,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="12" t="s">
@@ -1426,7 +1528,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="12" t="s">
@@ -1446,7 +1548,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="12" t="s">
@@ -1466,7 +1568,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="12" t="s">
@@ -1486,7 +1588,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="12" t="s">
@@ -1506,7 +1608,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="12" t="s">
@@ -1526,7 +1628,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="12" t="s">
@@ -1546,7 +1648,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="12" t="s">
@@ -1566,7 +1668,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="12" t="s">
@@ -1586,7 +1688,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="12" t="s">
@@ -1606,7 +1708,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="7">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="12" t="s">
@@ -1626,7 +1728,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="12" t="s">
@@ -1646,7 +1748,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f>SUM(C33:G33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -1666,7 +1768,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f>SUM(C34:G34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="12" t="s">
@@ -1686,7 +1788,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f>SUM(C35:G35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="12" t="s">
@@ -1706,7 +1808,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f>SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H100" si="2">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="12" t="s">
@@ -1726,7 +1828,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="7">
-        <f>SUM(C37:G37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="12" t="s">
@@ -1746,7 +1848,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f>SUM(C38:G38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="12" t="s">
@@ -1766,7 +1868,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="7">
-        <f>SUM(C39:G39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39" s="12" t="s">
@@ -1786,7 +1888,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f>SUM(C40:G40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="12" t="s">
@@ -1806,7 +1908,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f>SUM(C41:G41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="12" t="s">
@@ -1826,7 +1928,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f>SUM(C42:G42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="12" t="s">
@@ -1846,7 +1948,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f>SUM(C43:G43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="12" t="s">
@@ -1866,7 +1968,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="7">
-        <f>SUM(C44:G44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="12" t="s">
@@ -1886,7 +1988,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="7">
-        <f>SUM(C45:G45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -1906,7 +2008,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7">
-        <f>SUM(C46:G46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="12" t="s">
@@ -1926,7 +2028,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7">
-        <f>SUM(C47:G47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="12" t="s">
@@ -1946,7 +2048,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f>SUM(C48:G48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="12" t="s">
@@ -1966,7 +2068,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7">
-        <f>SUM(C49:G49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
@@ -1986,7 +2088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f>SUM(C50:G50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="12" t="s">
@@ -2006,7 +2108,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f>SUM(C51:G51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -2026,7 +2128,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f>SUM(C52:G52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="12" t="s">
@@ -2046,7 +2148,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f>SUM(C53:G53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="12" t="s">
@@ -2066,7 +2168,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="7">
-        <f>SUM(C54:G54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="12" t="s">
@@ -2086,7 +2188,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="7">
-        <f>SUM(C55:G55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="12" t="s">
@@ -2106,7 +2208,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="7">
-        <f>SUM(C56:G56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="12" t="s">
@@ -2126,7 +2228,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="7">
-        <f>SUM(C57:G57)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="12" t="s">
@@ -2146,7 +2248,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="7">
-        <f>SUM(C58:G58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="12" t="s">
@@ -2166,7 +2268,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f>SUM(C59:G59)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="12" t="s">
@@ -2186,7 +2288,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="7">
-        <f>SUM(C60:G60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="12" t="s">
@@ -2206,7 +2308,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f>SUM(C61:G61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="12" t="s">
@@ -2226,7 +2328,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f>SUM(C62:G62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="12" t="s">
@@ -2246,7 +2348,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f>SUM(C63:G63)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="12" t="s">
@@ -2266,7 +2368,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f>SUM(C64:G64)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="12" t="s">
@@ -2285,12 +2387,13 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="7">
+      <c r="H65" s="23">
         <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>23</v>
+      <c r="I65" s="24"/>
+      <c r="J65" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,12 +2408,13 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="7">
+      <c r="H66" s="23">
         <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>24</v>
+      <c r="I66" s="24"/>
+      <c r="J66" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2325,12 +2429,13 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="7">
+      <c r="H67" s="23">
         <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>25</v>
+      <c r="I67" s="24"/>
+      <c r="J67" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2340,17 +2445,18 @@
       <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="23">
         <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>26</v>
+      <c r="I68" s="24"/>
+      <c r="J68" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,17 +2466,18 @@
       <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="23">
         <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>27</v>
+      <c r="I69" s="24"/>
+      <c r="J69" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2385,12 +2492,13 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="7">
+      <c r="H70" s="23">
         <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>28</v>
+      <c r="I70" s="24"/>
+      <c r="J70" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2405,12 +2513,13 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="7">
+      <c r="H71" s="23">
         <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>26</v>
+      <c r="I71" s="24"/>
+      <c r="J71" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,12 +2534,13 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="7">
+      <c r="H72" s="23">
         <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>29</v>
+      <c r="I72" s="24"/>
+      <c r="J72" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2445,12 +2555,13 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="7">
+      <c r="H73" s="23">
         <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>30</v>
+      <c r="I73" s="24"/>
+      <c r="J73" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2460,17 +2571,18 @@
       <c r="B74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="23">
         <f>SUM(C74:G74)</f>
         <v>0</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>31</v>
+      <c r="I74" s="24"/>
+      <c r="J74" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2485,12 +2597,13 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="7">
+      <c r="H75" s="23">
         <f>SUM(C75:G75)</f>
         <v>0</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>32</v>
+      <c r="I75" s="24"/>
+      <c r="J75" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2505,12 +2618,13 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="7">
+      <c r="H76" s="23">
         <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>33</v>
+      <c r="I76" s="24"/>
+      <c r="J76" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2525,12 +2639,13 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="7">
+      <c r="H77" s="23">
         <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>34</v>
+      <c r="I77" s="24"/>
+      <c r="J77" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,12 +2660,13 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="7">
+      <c r="H78" s="23">
         <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>34</v>
+      <c r="I78" s="24"/>
+      <c r="J78" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,12 +2681,13 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="7">
+      <c r="H79" s="23">
         <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>35</v>
+      <c r="I79" s="24"/>
+      <c r="J79" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2578,19 +2695,20 @@
         <v>9</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="7">
+      <c r="H80" s="23">
         <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>37</v>
+      <c r="I80" s="24"/>
+      <c r="J80" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2598,19 +2716,20 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="7">
+      <c r="H81" s="23">
         <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>38</v>
+      <c r="I81" s="24"/>
+      <c r="J81" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2618,19 +2737,20 @@
         <v>9</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="7">
+      <c r="H82" s="23">
         <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>39</v>
+      <c r="I82" s="24"/>
+      <c r="J82" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2638,19 +2758,20 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="7">
+      <c r="H83" s="23">
         <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>40</v>
+      <c r="I83" s="24"/>
+      <c r="J83" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2658,19 +2779,20 @@
         <v>9</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
+        <v>13</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="23">
         <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>41</v>
+      <c r="I84" s="24"/>
+      <c r="J84" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2678,19 +2800,20 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="7">
+      <c r="H85" s="23">
         <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>42</v>
+      <c r="I85" s="24"/>
+      <c r="J85" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2698,19 +2821,20 @@
         <v>9</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="7">
+      <c r="H86" s="23">
         <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>43</v>
+      <c r="I86" s="24"/>
+      <c r="J86" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,19 +2842,20 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="7">
+      <c r="H87" s="23">
         <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>26</v>
+      <c r="I87" s="24"/>
+      <c r="J87" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2738,19 +2863,20 @@
         <v>9</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="7">
+      <c r="H88" s="23">
         <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>44</v>
+      <c r="I88" s="24"/>
+      <c r="J88" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2758,19 +2884,20 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="7">
+      <c r="H89" s="23">
         <f>SUM(C89:G89)</f>
         <v>0</v>
       </c>
-      <c r="J89" s="12" t="s">
-        <v>35</v>
+      <c r="I89" s="24"/>
+      <c r="J89" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2778,19 +2905,20 @@
         <v>9</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="7">
+      <c r="H90" s="23">
         <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
-      <c r="J90" s="12" t="s">
-        <v>45</v>
+      <c r="I90" s="24"/>
+      <c r="J90" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2798,19 +2926,20 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="7">
+      <c r="H91" s="23">
         <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>46</v>
+      <c r="I91" s="24"/>
+      <c r="J91" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2818,19 +2947,19 @@
         <v>9</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="7">
+      <c r="H92" s="23">
         <f>SUM(C92:G92)</f>
         <v>0</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2838,19 +2967,19 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="7">
+      <c r="H93" s="23">
         <f>SUM(C93:G93)</f>
         <v>0</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2858,19 +2987,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="7">
+      <c r="H94" s="23">
         <f>SUM(C94:G94)</f>
         <v>0</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2878,19 +3007,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="7">
+      <c r="H95" s="23">
         <f>SUM(C95:G95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2898,296 +3027,683 @@
         <v>9</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="7">
+      <c r="H96" s="23">
         <f>SUM(C96:G96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="H97" s="23">
+        <f>SUM(C97:G97)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="H99" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
+      <c r="H100" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
+        <f t="shared" ref="H101:H132" si="3">SUM(C101:G101)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
+      <c r="H103" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
+      <c r="H105" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H106" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H107" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H108" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H113" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H114" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H115" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H117" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H119" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H120" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H121" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H123" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="7"/>
-    </row>
-    <row r="126" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H125" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H127" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H128" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -3195,15 +3711,17 @@
       <c r="G130" s="9"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -3211,7 +3729,8 @@
       <c r="G132" s="9"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3219,7 +3738,8 @@
       <c r="G133" s="9"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -3227,7 +3747,8 @@
       <c r="G134" s="9"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3235,7 +3756,8 @@
       <c r="G135" s="9"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3243,15 +3765,17 @@
       <c r="G136" s="9"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -3259,7 +3783,8 @@
       <c r="G138" s="9"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3267,15 +3792,15 @@
       <c r="G139" s="9"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -3283,7 +3808,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -3291,13 +3816,277 @@
       <c r="G142" s="9"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3347,38 +4136,38 @@
     <hyperlink ref="J10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="J11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="J12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J65" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J66" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J67" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J68" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J69" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J70" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J71" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J72" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J73" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J74" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J75" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J76" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J77" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J78" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J79" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J80" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J81" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J82" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J83" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J84" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J85" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J86" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J87" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J88" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J89" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="J90" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J91" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="J92" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="J94" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="J95" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="J96" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J98" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J99" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J100" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J101" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J102" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J103" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J104" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J105" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J106" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J107" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J108" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J109" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J110" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J111" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J112" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J113" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J114" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J115" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J116" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J117" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J118" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J119" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J120" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J121" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J122" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J123" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J124" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J125" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J126" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J127" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J128" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J129" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="J24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="J25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="J26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
@@ -3431,8 +4220,41 @@
     <hyperlink ref="J21" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="J22" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="J23" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J65" r:id="rId94" xr:uid="{3153CB62-48CB-467A-AD4B-C41A46AC7596}"/>
+    <hyperlink ref="J66" r:id="rId95" xr:uid="{D60A650D-4128-400C-852B-F0CE6592AA75}"/>
+    <hyperlink ref="J67" r:id="rId96" xr:uid="{A940F832-B9FF-457D-9C2A-7D2997CAA525}"/>
+    <hyperlink ref="J68" r:id="rId97" xr:uid="{4420F0E6-D6D5-48C9-A035-EF4F5FC343FE}"/>
+    <hyperlink ref="J69" r:id="rId98" xr:uid="{206E2E34-430E-4515-B038-C61A4F235E24}"/>
+    <hyperlink ref="J70" r:id="rId99" xr:uid="{A0A552F2-4E47-4D7D-885C-978D527E434C}"/>
+    <hyperlink ref="J71" r:id="rId100" xr:uid="{EA34FBAD-27C0-4732-81B4-6A4BAFB4208A}"/>
+    <hyperlink ref="J72" r:id="rId101" xr:uid="{0A44A469-D9CA-4E2A-8378-25739D3D6D15}"/>
+    <hyperlink ref="J73" r:id="rId102" xr:uid="{AFC18B91-FDD7-496F-A5D6-2B315462D987}"/>
+    <hyperlink ref="J74" r:id="rId103" xr:uid="{1914DCB7-AEAC-4193-9511-D800190593EC}"/>
+    <hyperlink ref="J75" r:id="rId104" xr:uid="{844BABA8-D298-44E9-A1BF-7FA0D222F8F6}"/>
+    <hyperlink ref="J76" r:id="rId105" xr:uid="{CD6BE1A3-70E5-4D94-ADA9-F5B66FCCB4B2}"/>
+    <hyperlink ref="J77" r:id="rId106" xr:uid="{F1F8F2F7-1A45-4B66-9F49-D34186A8EBC4}"/>
+    <hyperlink ref="J78" r:id="rId107" xr:uid="{2DE0408B-E9B3-4A56-BAFA-F3AEEF83DE13}"/>
+    <hyperlink ref="J79" r:id="rId108" xr:uid="{1FB63FB9-147A-4A82-A2BE-263F4B28428A}"/>
+    <hyperlink ref="J80" r:id="rId109" xr:uid="{1AE5EABE-3B9F-4369-A1AF-1A3D7A3D7D96}"/>
+    <hyperlink ref="J81" r:id="rId110" xr:uid="{5EB91ADC-B786-48B9-9719-5539D0A50BF8}"/>
+    <hyperlink ref="J82" r:id="rId111" xr:uid="{32214207-2B7F-4ECB-909E-366F8366D92F}"/>
+    <hyperlink ref="J83" r:id="rId112" xr:uid="{37367841-BD6A-40ED-B325-574B1FFCE384}"/>
+    <hyperlink ref="J84" r:id="rId113" xr:uid="{F5A868AD-195F-4431-9CF8-86BBCD334A6E}"/>
+    <hyperlink ref="J85" r:id="rId114" xr:uid="{9EFB78D5-CE23-46EF-B590-9D7BAF6636B4}"/>
+    <hyperlink ref="J86" r:id="rId115" xr:uid="{0D3EDD47-19B9-4F47-861D-18398A5C3C4F}"/>
+    <hyperlink ref="J87" r:id="rId116" xr:uid="{34250D47-D3E6-4303-B2CC-CF34732C1256}"/>
+    <hyperlink ref="J88" r:id="rId117" xr:uid="{353539F7-76A0-423B-A957-55832CB8E00E}"/>
+    <hyperlink ref="J89" r:id="rId118" xr:uid="{6083876F-D9CD-4C97-9370-6F8097B6DB86}"/>
+    <hyperlink ref="J90" r:id="rId119" xr:uid="{F1D5190F-4F46-4C6C-B418-3C181C7706A2}"/>
+    <hyperlink ref="J91" r:id="rId120" xr:uid="{94C2E72F-2C33-4739-B279-CAF6F1BB846D}"/>
+    <hyperlink ref="J92" r:id="rId121" xr:uid="{5F46FCDE-7354-484D-AA8B-A523ACD535FF}"/>
+    <hyperlink ref="J93" r:id="rId122" xr:uid="{0BCDFE95-240B-4343-8DF5-AD5125307BE2}"/>
+    <hyperlink ref="J94" r:id="rId123" xr:uid="{3F213688-AB36-40C7-8A7F-8C388A3FD175}"/>
+    <hyperlink ref="J95" r:id="rId124" xr:uid="{22B05DD4-5F48-429E-BF8D-B4778F726DE4}"/>
+    <hyperlink ref="J96" r:id="rId125" xr:uid="{1DC0EEFA-13AA-401D-BF09-002775A2AEF2}"/>
+    <hyperlink ref="J97" r:id="rId126" xr:uid="{1CBC1C5F-B854-408D-BB8E-90B1A456A235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId94"/>
+  <pageSetup orientation="portrait" r:id="rId127"/>
 </worksheet>
 </file>